--- a/data/trans_orig/IP2005-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2005-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D7D7DA-5E4E-407F-B566-28D523D22098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79677DC6-1BDA-4890-99BE-D7C78A870AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DAB2566D-4ACD-40F1-A6E4-A852065C7F0C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FB2E5310-1F75-462F-A663-781B94014767}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>88,95%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
     <t>11,18%</t>
   </si>
   <si>
@@ -359,6 +359,60 @@
     <t>98,77%</t>
   </si>
   <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
     <t>13,59%</t>
   </si>
   <si>
@@ -413,60 +467,6 @@
     <t>89,2%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
     <t>9,09%</t>
   </si>
   <si>
@@ -578,6 +578,60 @@
     <t>99,43%</t>
   </si>
   <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
     <t>14,18%</t>
   </si>
   <si>
@@ -632,60 +686,6 @@
     <t>90,53%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
     <t>8,81%</t>
   </si>
   <si>
@@ -791,6 +791,54 @@
     <t>87,89%</t>
   </si>
   <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
     <t>11,73%</t>
   </si>
   <si>
@@ -831,54 +879,6 @@
   </si>
   <si>
     <t>90,83%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
   </si>
   <si>
     <t>11,89%</t>
@@ -1324,7 +1324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C473690-C625-4119-BD5A-3D3B9CC65E3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F7EA54-383D-4966-805C-E9D67934BCB1}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1597,10 +1597,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>37413</v>
+        <v>26246</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1612,10 +1612,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>34900</v>
+        <v>21606</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1627,10 +1627,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>72314</v>
+        <v>47852</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1648,10 +1648,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>361</v>
+        <v>287</v>
       </c>
       <c r="D8" s="7">
-        <v>240098</v>
+        <v>189781</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1663,10 +1663,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="I8" s="7">
-        <v>225781</v>
+        <v>182261</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1678,10 +1678,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>694</v>
+        <v>557</v>
       </c>
       <c r="N8" s="7">
-        <v>465878</v>
+        <v>372042</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1699,10 +1699,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>416</v>
+        <v>327</v>
       </c>
       <c r="D9" s="7">
-        <v>277511</v>
+        <v>216027</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1714,10 +1714,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="I9" s="7">
-        <v>260681</v>
+        <v>203867</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1729,10 +1729,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>803</v>
+        <v>629</v>
       </c>
       <c r="N9" s="7">
-        <v>538192</v>
+        <v>419894</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1752,10 +1752,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7">
-        <v>26246</v>
+        <v>37413</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1767,10 +1767,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>21606</v>
+        <v>34900</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1782,10 +1782,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>47852</v>
+        <v>72314</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1803,10 +1803,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>287</v>
+        <v>361</v>
       </c>
       <c r="D11" s="7">
-        <v>189781</v>
+        <v>240098</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1818,10 +1818,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="I11" s="7">
-        <v>182261</v>
+        <v>225781</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1833,10 +1833,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>557</v>
+        <v>694</v>
       </c>
       <c r="N11" s="7">
-        <v>372042</v>
+        <v>465878</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1854,10 +1854,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>327</v>
+        <v>416</v>
       </c>
       <c r="D12" s="7">
-        <v>216027</v>
+        <v>277511</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1869,10 +1869,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>302</v>
+        <v>387</v>
       </c>
       <c r="I12" s="7">
-        <v>203867</v>
+        <v>260681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1884,10 +1884,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>629</v>
+        <v>803</v>
       </c>
       <c r="N12" s="7">
-        <v>419894</v>
+        <v>538192</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2070,7 +2070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43700DA-2FFA-4E8A-817E-685A5DDEE06C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF59BE0-E584-48EC-AF6E-ABA39479AACB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2343,10 +2343,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>36499</v>
+        <v>25245</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2358,10 +2358,10 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>31860</v>
+        <v>24991</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2373,10 +2373,10 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>68359</v>
+        <v>50236</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
@@ -2394,10 +2394,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>232006</v>
+        <v>216746</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2409,10 +2409,10 @@
         <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="I8" s="7">
-        <v>222075</v>
+        <v>203771</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
@@ -2424,10 +2424,10 @@
         <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>660</v>
+        <v>587</v>
       </c>
       <c r="N8" s="7">
-        <v>454081</v>
+        <v>420517</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>121</v>
@@ -2445,10 +2445,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="D9" s="7">
-        <v>268505</v>
+        <v>241991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2460,10 +2460,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>362</v>
+        <v>320</v>
       </c>
       <c r="I9" s="7">
-        <v>253935</v>
+        <v>228762</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2475,10 +2475,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>759</v>
+        <v>655</v>
       </c>
       <c r="N9" s="7">
-        <v>522440</v>
+        <v>470753</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2498,10 +2498,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>25245</v>
+        <v>36499</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -2513,10 +2513,10 @@
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I10" s="7">
-        <v>24991</v>
+        <v>31860</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2528,10 +2528,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="N10" s="7">
-        <v>50236</v>
+        <v>68359</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2549,10 +2549,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="D11" s="7">
-        <v>216746</v>
+        <v>232006</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2564,10 +2564,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="I11" s="7">
-        <v>203771</v>
+        <v>222075</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2579,10 +2579,10 @@
         <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="N11" s="7">
-        <v>420517</v>
+        <v>454081</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>139</v>
@@ -2600,10 +2600,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>335</v>
+        <v>397</v>
       </c>
       <c r="D12" s="7">
-        <v>241991</v>
+        <v>268505</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2615,10 +2615,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="I12" s="7">
-        <v>228762</v>
+        <v>253935</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2630,10 +2630,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>655</v>
+        <v>759</v>
       </c>
       <c r="N12" s="7">
-        <v>470753</v>
+        <v>522440</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2816,7 +2816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7FB133-9F9D-412C-87BE-6B51E1EB9CC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565F7C90-4970-47D7-8B57-B9F05F2FA387}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3089,10 +3089,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>39725</v>
+        <v>20382</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>179</v>
@@ -3104,10 +3104,10 @@
         <v>181</v>
       </c>
       <c r="H7" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>23487</v>
+        <v>18178</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>182</v>
@@ -3119,10 +3119,10 @@
         <v>184</v>
       </c>
       <c r="M7" s="7">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="N7" s="7">
-        <v>63212</v>
+        <v>38561</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>185</v>
@@ -3140,10 +3140,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>240505</v>
+        <v>228326</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>188</v>
@@ -3155,10 +3155,10 @@
         <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I8" s="7">
-        <v>241994</v>
+        <v>215243</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>191</v>
@@ -3173,7 +3173,7 @@
         <v>662</v>
       </c>
       <c r="N8" s="7">
-        <v>482499</v>
+        <v>443568</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>194</v>
@@ -3191,10 +3191,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D9" s="7">
-        <v>280230</v>
+        <v>248708</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3206,10 +3206,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="I9" s="7">
-        <v>265481</v>
+        <v>233421</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3221,10 +3221,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>751</v>
+        <v>718</v>
       </c>
       <c r="N9" s="7">
-        <v>545711</v>
+        <v>482129</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3244,10 +3244,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>20382</v>
+        <v>39725</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>197</v>
@@ -3259,10 +3259,10 @@
         <v>199</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>18178</v>
+        <v>23487</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>200</v>
@@ -3274,10 +3274,10 @@
         <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>38561</v>
+        <v>63212</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>203</v>
@@ -3295,10 +3295,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D11" s="7">
-        <v>228326</v>
+        <v>240505</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>206</v>
@@ -3310,10 +3310,10 @@
         <v>208</v>
       </c>
       <c r="H11" s="7">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="I11" s="7">
-        <v>215243</v>
+        <v>241994</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>209</v>
@@ -3328,7 +3328,7 @@
         <v>662</v>
       </c>
       <c r="N11" s="7">
-        <v>443568</v>
+        <v>482499</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>212</v>
@@ -3346,10 +3346,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D12" s="7">
-        <v>248708</v>
+        <v>280230</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3361,10 +3361,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="I12" s="7">
-        <v>233421</v>
+        <v>265481</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3376,10 +3376,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>718</v>
+        <v>751</v>
       </c>
       <c r="N12" s="7">
-        <v>482129</v>
+        <v>545711</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3441,7 +3441,7 @@
         <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,7 +3489,7 @@
         <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>230</v>
@@ -3562,7 +3562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB5A3BD-9FB8-4951-B8DF-3BB77CCC4E98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601F311B-02EE-4D09-9DAC-C057EED2C13A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3835,10 +3835,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>47255</v>
+        <v>24517</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>250</v>
@@ -3850,34 +3850,34 @@
         <v>252</v>
       </c>
       <c r="H7" s="7">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>36909</v>
+        <v>25936</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>254</v>
       </c>
       <c r="M7" s="7">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="N7" s="7">
-        <v>84164</v>
+        <v>50453</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,49 +3886,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>422</v>
+        <v>235</v>
       </c>
       <c r="D8" s="7">
-        <v>355455</v>
+        <v>178838</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
-        <v>412</v>
+        <v>245</v>
       </c>
       <c r="I8" s="7">
-        <v>313899</v>
+        <v>172331</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
-        <v>834</v>
+        <v>480</v>
       </c>
       <c r="N8" s="7">
-        <v>669355</v>
+        <v>351169</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,10 +3937,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>268</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>203355</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3952,10 +3952,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3967,10 +3967,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>549</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>401622</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3990,49 +3990,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>24517</v>
+        <v>47255</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="I10" s="7">
-        <v>25936</v>
+        <v>36909</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>112</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="N10" s="7">
-        <v>50453</v>
+        <v>84164</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,43 +4041,43 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>235</v>
+        <v>422</v>
       </c>
       <c r="D11" s="7">
-        <v>178838</v>
+        <v>355455</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
-        <v>245</v>
+        <v>412</v>
       </c>
       <c r="I11" s="7">
-        <v>172331</v>
+        <v>313899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>120</v>
       </c>
       <c r="M11" s="7">
-        <v>480</v>
+        <v>834</v>
       </c>
       <c r="N11" s="7">
-        <v>351169</v>
+        <v>669355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>84</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>278</v>
@@ -4092,10 +4092,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>268</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>203355</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4107,10 +4107,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4122,10 +4122,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>549</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>401622</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP2005-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2005-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79677DC6-1BDA-4890-99BE-D7C78A870AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27578D3B-547E-4408-A2C1-B74789B76B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FB2E5310-1F75-462F-A663-781B94014767}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D80E8393-71A6-4C28-8E47-90DC51BB5B3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="353">
   <si>
     <t>Menores según si sus dientes estan sanos en 2007 (Tasa respuesta: 93,63%)</t>
   </si>
@@ -68,871 +68,1036 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2012 (Tasa respuesta: 92,95%)</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2015 (Tasa respuesta: 93,18%)</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2012 (Tasa respuesta: 92,95%)</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2015 (Tasa respuesta: 93,18%)</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
+    <t>14,99%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
 </sst>
 </file>
@@ -943,7 +1108,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1039,39 +1204,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1123,7 +1288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1234,13 +1399,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1249,6 +1407,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1313,19 +1478,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F7EA54-383D-4966-805C-E9D67934BCB1}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC72CB4-6F7E-4A35-B1E3-7C36ACF781AB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1442,10 +1627,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="D4" s="7">
-        <v>12161</v>
+        <v>77584</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1457,10 +1642,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I4" s="7">
-        <v>14490</v>
+        <v>61874</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1472,10 +1657,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="N4" s="7">
-        <v>26651</v>
+        <v>139457</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1493,10 +1678,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>259</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>172566</v>
+        <v>6172</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1508,10 +1693,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>239</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>157000</v>
+        <v>6313</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1523,10 +1708,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>498</v>
+        <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>329566</v>
+        <v>12486</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1544,10 +1729,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>277</v>
+        <v>126</v>
       </c>
       <c r="D6" s="7">
-        <v>184727</v>
+        <v>83756</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1559,10 +1744,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="I6" s="7">
-        <v>171490</v>
+        <v>68187</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1574,10 +1759,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>538</v>
+        <v>230</v>
       </c>
       <c r="N6" s="7">
-        <v>356217</v>
+        <v>151943</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1597,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="D7" s="7">
-        <v>26246</v>
+        <v>231424</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1612,10 +1797,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>348</v>
       </c>
       <c r="I7" s="7">
-        <v>21606</v>
+        <v>232185</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1627,10 +1812,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>72</v>
+        <v>697</v>
       </c>
       <c r="N7" s="7">
-        <v>47852</v>
+        <v>463608</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1648,10 +1833,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>189781</v>
+        <v>20798</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1663,10 +1848,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>182261</v>
+        <v>18943</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1678,10 +1863,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>557</v>
+        <v>59</v>
       </c>
       <c r="N8" s="7">
-        <v>372042</v>
+        <v>39741</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1699,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>327</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>216027</v>
+        <v>252222</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1714,10 +1899,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>302</v>
+        <v>376</v>
       </c>
       <c r="I9" s="7">
-        <v>203867</v>
+        <v>251128</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1729,10 +1914,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>629</v>
+        <v>756</v>
       </c>
       <c r="N9" s="7">
-        <v>419894</v>
+        <v>503349</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1752,10 +1937,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D10" s="7">
-        <v>37413</v>
+        <v>117478</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1767,10 +1952,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="I10" s="7">
-        <v>34900</v>
+        <v>105311</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1782,10 +1967,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>109</v>
+        <v>333</v>
       </c>
       <c r="N10" s="7">
-        <v>72314</v>
+        <v>222788</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1803,10 +1988,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>361</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>240098</v>
+        <v>21338</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1818,10 +2003,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>333</v>
+        <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>225781</v>
+        <v>20911</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1833,10 +2018,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>694</v>
+        <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>465878</v>
+        <v>42249</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1854,10 +2039,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="D12" s="7">
-        <v>277511</v>
+        <v>138816</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1869,10 +2054,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>387</v>
+        <v>189</v>
       </c>
       <c r="I12" s="7">
-        <v>260681</v>
+        <v>126222</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1884,10 +2069,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>803</v>
+        <v>397</v>
       </c>
       <c r="N12" s="7">
-        <v>538192</v>
+        <v>265037</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1901,55 +2086,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="D13" s="7">
-        <v>75820</v>
+        <v>175960</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="I13" s="7">
-        <v>70996</v>
+        <v>165673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>221</v>
+        <v>508</v>
       </c>
       <c r="N13" s="7">
-        <v>146816</v>
+        <v>341633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,49 +2143,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>907</v>
+        <v>41</v>
       </c>
       <c r="D14" s="7">
-        <v>602445</v>
+        <v>27512</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
+        <v>38</v>
+      </c>
+      <c r="I14" s="7">
+        <v>24828</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="7">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>842</v>
-      </c>
-      <c r="I14" s="7">
-        <v>565042</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1749</v>
-      </c>
       <c r="N14" s="7">
-        <v>1167487</v>
+        <v>52340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,55 +2194,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>306</v>
+      </c>
+      <c r="D15" s="7">
+        <v>203472</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>281</v>
+      </c>
+      <c r="I15" s="7">
+        <v>190501</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>587</v>
+      </c>
+      <c r="N15" s="7">
+        <v>393973</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>907</v>
+      </c>
+      <c r="D16" s="7">
+        <v>602445</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>842</v>
+      </c>
+      <c r="I16" s="7">
+        <v>565042</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1749</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1167487</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>113</v>
+      </c>
+      <c r="D17" s="7">
+        <v>75820</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="7">
+        <v>108</v>
+      </c>
+      <c r="I17" s="7">
+        <v>70996</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M17" s="7">
+        <v>221</v>
+      </c>
+      <c r="N17" s="7">
+        <v>146816</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1020</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>678265</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>950</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>636038</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1970</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1314303</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2070,8 +2416,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF59BE0-E584-48EC-AF6E-ABA39479AACB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969D1C4D-5145-42C3-BBEE-BBAB0C0BD455}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2087,7 +2433,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2188,49 +2534,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D4" s="7">
-        <v>1875</v>
+        <v>94648</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="I4" s="7">
-        <v>6974</v>
+        <v>96119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>280</v>
       </c>
       <c r="N4" s="7">
-        <v>8850</v>
+        <v>190767</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,49 +2585,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>265</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>187222</v>
+        <v>1275</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>259</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>170643</v>
+        <v>2751</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>357864</v>
+        <v>4026</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,10 +2636,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="D6" s="7">
-        <v>189097</v>
+        <v>95923</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2305,10 +2651,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="I6" s="7">
-        <v>177617</v>
+        <v>98870</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2320,10 +2666,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>537</v>
+        <v>286</v>
       </c>
       <c r="N6" s="7">
-        <v>366714</v>
+        <v>194793</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2343,49 +2689,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>34</v>
+        <v>352</v>
       </c>
       <c r="D7" s="7">
-        <v>25245</v>
+        <v>252192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="I7" s="7">
-        <v>24991</v>
+        <v>217267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>68</v>
+        <v>667</v>
       </c>
       <c r="N7" s="7">
-        <v>50236</v>
+        <v>469459</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,49 +2740,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>301</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>216746</v>
+        <v>16799</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>286</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>203771</v>
+        <v>18983</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>587</v>
+        <v>47</v>
       </c>
       <c r="N8" s="7">
-        <v>420517</v>
+        <v>35782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,10 +2791,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="D9" s="7">
-        <v>241991</v>
+        <v>268991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2460,10 +2806,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>228762</v>
+        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2475,10 +2821,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>655</v>
+        <v>714</v>
       </c>
       <c r="N9" s="7">
-        <v>470753</v>
+        <v>505241</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2498,49 +2844,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D10" s="7">
-        <v>36499</v>
+        <v>137002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="I10" s="7">
-        <v>31860</v>
+        <v>136172</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>99</v>
+        <v>392</v>
       </c>
       <c r="N10" s="7">
-        <v>68359</v>
+        <v>273174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,49 +2895,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>344</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>232006</v>
+        <v>20413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>222075</v>
+        <v>19062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>660</v>
+        <v>56</v>
       </c>
       <c r="N11" s="7">
-        <v>454081</v>
+        <v>39475</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,10 +2946,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>397</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>268505</v>
+        <v>157415</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2615,10 +2961,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>362</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>253935</v>
+        <v>155234</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2630,10 +2976,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>759</v>
+        <v>448</v>
       </c>
       <c r="N12" s="7">
-        <v>522440</v>
+        <v>312649</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2647,55 +2993,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="D13" s="7">
-        <v>63619</v>
+        <v>152132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="I13" s="7">
-        <v>63825</v>
+        <v>146930</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>180</v>
+        <v>432</v>
       </c>
       <c r="N13" s="7">
-        <v>127444</v>
+        <v>299063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,49 +3050,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>910</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>635974</v>
+        <v>25132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>861</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>596489</v>
+        <v>23030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>1771</v>
+        <v>71</v>
       </c>
       <c r="N14" s="7">
-        <v>1232463</v>
+        <v>48161</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,55 +3101,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>262</v>
+      </c>
+      <c r="D15" s="7">
+        <v>177264</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>241</v>
+      </c>
+      <c r="I15" s="7">
+        <v>169960</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>503</v>
+      </c>
+      <c r="N15" s="7">
+        <v>347224</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>910</v>
+      </c>
+      <c r="D16" s="7">
+        <v>635974</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="7">
+        <v>861</v>
+      </c>
+      <c r="I16" s="7">
+        <v>596489</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1771</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1232463</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>90</v>
+      </c>
+      <c r="D17" s="7">
+        <v>63619</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="7">
+        <v>90</v>
+      </c>
+      <c r="I17" s="7">
+        <v>63825</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" s="7">
+        <v>180</v>
+      </c>
+      <c r="N17" s="7">
+        <v>127444</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1000</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>699593</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>951</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>660314</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1951</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1359907</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2816,8 +3323,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565F7C90-4970-47D7-8B57-B9F05F2FA387}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48238C36-DF74-4589-AC7D-5F9E95982167}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2833,7 +3340,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2934,49 +3441,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="D4" s="7">
-        <v>1433</v>
+        <v>80214</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>140</v>
       </c>
       <c r="I4" s="7">
-        <v>2773</v>
+        <v>87288</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="N4" s="7">
-        <v>4206</v>
+        <v>167503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,49 +3492,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>167781</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>154700</v>
+        <v>571</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="M5" s="7">
-        <v>505</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>322481</v>
+        <v>571</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,10 +3543,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>256</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>169214</v>
+        <v>80214</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3051,10 +3558,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="I6" s="7">
-        <v>157473</v>
+        <v>87859</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3066,10 +3573,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>512</v>
+        <v>263</v>
       </c>
       <c r="N6" s="7">
-        <v>326687</v>
+        <v>168074</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3089,49 +3596,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>364</v>
       </c>
       <c r="D7" s="7">
-        <v>20382</v>
+        <v>246914</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>315</v>
       </c>
       <c r="I7" s="7">
-        <v>18178</v>
+        <v>198720</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
-        <v>56</v>
+        <v>679</v>
       </c>
       <c r="N7" s="7">
-        <v>38561</v>
+        <v>445634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,49 +3647,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>331</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>228326</v>
+        <v>10447</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
-        <v>331</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>215243</v>
+        <v>11103</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
-        <v>662</v>
+        <v>31</v>
       </c>
       <c r="N8" s="7">
-        <v>443568</v>
+        <v>21550</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,10 +3698,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D9" s="7">
-        <v>248708</v>
+        <v>257361</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3206,10 +3713,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="I9" s="7">
-        <v>233421</v>
+        <v>209823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3221,10 +3728,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="N9" s="7">
-        <v>482129</v>
+        <v>467184</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3244,49 +3751,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="D10" s="7">
-        <v>39725</v>
+        <v>158802</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>248</v>
       </c>
       <c r="I10" s="7">
-        <v>23487</v>
+        <v>172247</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
-        <v>89</v>
+        <v>469</v>
       </c>
       <c r="N10" s="7">
-        <v>63212</v>
+        <v>331049</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,49 +3802,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7">
-        <v>240505</v>
+        <v>28426</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>241994</v>
+        <v>14503</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
-        <v>662</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>482499</v>
+        <v>42929</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,10 +3853,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="D12" s="7">
-        <v>280230</v>
+        <v>187228</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3361,10 +3868,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>372</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>265481</v>
+        <v>186750</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3376,10 +3883,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>751</v>
+        <v>530</v>
       </c>
       <c r="N12" s="7">
-        <v>545711</v>
+        <v>373978</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3393,55 +3900,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>85</v>
+        <v>204</v>
       </c>
       <c r="D13" s="7">
-        <v>61540</v>
+        <v>150681</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" s="7">
         <v>215</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" s="7">
-        <v>67</v>
-      </c>
       <c r="I13" s="7">
-        <v>44439</v>
+        <v>153681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>152</v>
+        <v>419</v>
       </c>
       <c r="N13" s="7">
-        <v>105979</v>
+        <v>304362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,49 +3957,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>911</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>636612</v>
+        <v>22667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
-        <v>918</v>
+        <v>29</v>
       </c>
       <c r="I14" s="7">
-        <v>611937</v>
+        <v>18262</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
-        <v>1829</v>
+        <v>59</v>
       </c>
       <c r="N14" s="7">
-        <v>1248548</v>
+        <v>40929</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,55 +4008,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173348</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>244</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171943</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>478</v>
+      </c>
+      <c r="N15" s="7">
+        <v>345291</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>911</v>
+      </c>
+      <c r="D16" s="7">
+        <v>636612</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="7">
+        <v>918</v>
+      </c>
+      <c r="I16" s="7">
+        <v>611937</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1829</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1248548</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>85</v>
+      </c>
+      <c r="D17" s="7">
+        <v>61540</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" s="7">
+        <v>67</v>
+      </c>
+      <c r="I17" s="7">
+        <v>44439</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M17" s="7">
+        <v>152</v>
+      </c>
+      <c r="N17" s="7">
+        <v>105979</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>996</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>698152</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>985</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>656376</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1981</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1354527</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3562,8 +4230,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601F311B-02EE-4D09-9DAC-C057EED2C13A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF610812-C6AA-42FD-918A-A308F4292481}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3579,7 +4247,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3680,49 +4348,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="D4" s="7">
-        <v>12817</v>
+        <v>38584</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="H4" s="7">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="I4" s="7">
-        <v>18416</v>
+        <v>38392</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="N4" s="7">
-        <v>31233</v>
+        <v>76976</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,49 +4399,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>92249</v>
+        <v>7047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>76525</v>
+        <v>10274</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
-        <v>319</v>
+        <v>30</v>
       </c>
       <c r="N5" s="7">
-        <v>168775</v>
+        <v>17321</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,10 +4450,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7">
-        <v>105066</v>
+        <v>45631</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3797,10 +4465,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="I6" s="7">
-        <v>94941</v>
+        <v>48666</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3812,10 +4480,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>377</v>
+        <v>177</v>
       </c>
       <c r="N6" s="7">
-        <v>200008</v>
+        <v>94297</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3835,49 +4503,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="D7" s="7">
-        <v>24517</v>
+        <v>153349</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="H7" s="7">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="I7" s="7">
-        <v>25936</v>
+        <v>138355</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>69</v>
+        <v>463</v>
       </c>
       <c r="N7" s="7">
-        <v>50453</v>
+        <v>291703</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,49 +4554,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>178838</v>
+        <v>20249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>172331</v>
+        <v>20250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
-        <v>480</v>
+        <v>67</v>
       </c>
       <c r="N8" s="7">
-        <v>351169</v>
+        <v>40500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,10 +4605,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D9" s="7">
-        <v>203355</v>
+        <v>173598</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3952,10 +4620,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158605</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3967,10 +4635,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="N9" s="7">
-        <v>401622</v>
+        <v>332203</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3990,49 +4658,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="D10" s="7">
-        <v>47255</v>
+        <v>173961</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="I10" s="7">
-        <v>36909</v>
+        <v>154069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
-        <v>107</v>
+        <v>412</v>
       </c>
       <c r="N10" s="7">
-        <v>84164</v>
+        <v>328031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,49 +4709,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>422</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>355455</v>
+        <v>28517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
-        <v>412</v>
+        <v>29</v>
       </c>
       <c r="I11" s="7">
-        <v>313899</v>
+        <v>22044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
-        <v>834</v>
+        <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>669355</v>
+        <v>50560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,10 +4760,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4107,10 +4775,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4122,10 +4790,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4139,55 +4807,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="D13" s="7">
-        <v>84588</v>
+        <v>260649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
-        <v>118</v>
+        <v>303</v>
       </c>
       <c r="I13" s="7">
-        <v>81261</v>
+        <v>231940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
-        <v>234</v>
+        <v>611</v>
       </c>
       <c r="N13" s="7">
-        <v>165849</v>
+        <v>492589</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,49 +4864,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>829</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>626543</v>
+        <v>28775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
-        <v>804</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7">
-        <v>562756</v>
+        <v>28693</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
-        <v>1633</v>
+        <v>73</v>
       </c>
       <c r="N14" s="7">
-        <v>1189299</v>
+        <v>57468</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,55 +4915,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>829</v>
+      </c>
+      <c r="D16" s="7">
+        <v>626543</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H16" s="7">
+        <v>804</v>
+      </c>
+      <c r="I16" s="7">
+        <v>562756</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1633</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1189299</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>116</v>
+      </c>
+      <c r="D17" s="7">
+        <v>84588</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" s="7">
+        <v>118</v>
+      </c>
+      <c r="I17" s="7">
+        <v>81261</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M17" s="7">
+        <v>234</v>
+      </c>
+      <c r="N17" s="7">
+        <v>165849</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>945</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>711131</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>922</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>644017</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1867</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1355148</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP2005-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2005-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27578D3B-547E-4408-A2C1-B74789B76B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BFC90D-C7AA-406E-B502-50E3048E9EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D80E8393-71A6-4C28-8E47-90DC51BB5B3D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AC99976-A991-4EA7-9C70-2F622D2E0855}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="359">
   <si>
     <t>Menores según si sus dientes estan sanos en 2007 (Tasa respuesta: 93,63%)</t>
   </si>
@@ -77,280 +77,286 @@
     <t>92,63%</t>
   </si>
   <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>87,92%</t>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -362,7 +368,7 @@
     <t>98,67%</t>
   </si>
   <si>
-    <t>94,9%</t>
+    <t>95,51%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -371,19 +377,19 @@
     <t>97,22%</t>
   </si>
   <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -392,712 +398,724 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,1%</t>
+    <t>4,49%</t>
   </si>
   <si>
     <t>2,78%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>91,96%</t>
   </si>
   <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>87,72%</t>
   </si>
   <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>83,14%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>90,56%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>12,28%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
+    <t>16,86%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
+    <t>9,44%</t>
   </si>
   <si>
     <t>85,82%</t>
   </si>
   <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
   </si>
   <si>
     <t>86,45%</t>
   </si>
   <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>82,99%</t>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
   </si>
   <si>
     <t>13,55%</t>
   </si>
   <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>17,01%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>90,91%</t>
   </si>
   <si>
-    <t>92,66%</t>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>90,33%</t>
   </si>
   <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2016 (Tasa respuesta: 93,18%)</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2015 (Tasa respuesta: 93,18%)</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>85,52%</t>
   </si>
   <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>14,48%</t>
   </si>
   <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
     <t>12,62%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>14,99%</t>
+    <t>14,9%</t>
   </si>
   <si>
     <t>12,24%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
   </si>
 </sst>
 </file>
@@ -1509,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC72CB4-6F7E-4A35-B1E3-7C36ACF781AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554306BC-F757-4BCA-AB6B-2D8E3145C72C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2283,13 +2301,13 @@
         <v>1167487</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2322,13 @@
         <v>75820</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>108</v>
@@ -2319,13 +2337,13 @@
         <v>70996</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>221</v>
@@ -2334,13 +2352,13 @@
         <v>146816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,7 +2414,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2416,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969D1C4D-5145-42C3-BBEE-BBAB0C0BD455}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D2030-92F0-43CB-AF21-99058127CF28}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2433,7 +2451,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2540,13 +2558,13 @@
         <v>94648</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>145</v>
@@ -2555,13 +2573,13 @@
         <v>96119</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>280</v>
@@ -2570,13 +2588,13 @@
         <v>190767</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2609,13 @@
         <v>1275</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2606,13 +2624,13 @@
         <v>2751</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2621,13 +2639,13 @@
         <v>4026</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2713,13 @@
         <v>252192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>315</v>
@@ -2710,13 +2728,13 @@
         <v>217267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>667</v>
@@ -2725,13 +2743,13 @@
         <v>469459</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2764,13 @@
         <v>16799</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -2761,13 +2779,13 @@
         <v>18983</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>47</v>
@@ -2776,13 +2794,13 @@
         <v>35782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2868,13 @@
         <v>137002</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>193</v>
@@ -2865,13 +2883,13 @@
         <v>136172</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="M10" s="7">
         <v>392</v>
@@ -2880,13 +2898,13 @@
         <v>273174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2919,13 @@
         <v>20413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -2916,13 +2934,13 @@
         <v>19062</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -2931,13 +2949,13 @@
         <v>39475</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3023,13 @@
         <v>152132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
         <v>208</v>
@@ -3020,13 +3038,13 @@
         <v>146930</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>432</v>
@@ -3035,13 +3053,13 @@
         <v>299063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,13 +3074,13 @@
         <v>25132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -3071,13 +3089,13 @@
         <v>23030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>71</v>
@@ -3086,13 +3104,13 @@
         <v>48161</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3178,13 @@
         <v>635974</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
         <v>861</v>
@@ -3175,13 +3193,13 @@
         <v>596489</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>1771</v>
@@ -3190,13 +3208,13 @@
         <v>1232463</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3229,13 @@
         <v>63619</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>90</v>
@@ -3226,13 +3244,13 @@
         <v>63825</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
         <v>180</v>
@@ -3241,13 +3259,13 @@
         <v>127444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3321,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3323,7 +3341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48238C36-DF74-4589-AC7D-5F9E95982167}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD00AD55-2434-4D27-A018-18BE78D03283}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3340,7 +3358,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3447,10 +3465,10 @@
         <v>80214</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>30</v>
@@ -3462,13 +3480,13 @@
         <v>87288</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M4" s="7">
         <v>262</v>
@@ -3477,13 +3495,13 @@
         <v>167503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,13 +3516,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3513,13 +3531,13 @@
         <v>571</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3528,13 +3546,13 @@
         <v>571</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3620,13 @@
         <v>246914</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
         <v>315</v>
@@ -3617,13 +3635,13 @@
         <v>198720</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>679</v>
@@ -3632,13 +3650,13 @@
         <v>445634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3671,13 @@
         <v>10447</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -3668,13 +3686,13 @@
         <v>11103</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -3683,13 +3701,13 @@
         <v>21550</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3775,13 @@
         <v>158802</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>248</v>
@@ -3772,13 +3790,13 @@
         <v>172247</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>469</v>
@@ -3787,13 +3805,13 @@
         <v>331049</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3826,13 @@
         <v>28426</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -3823,13 +3841,13 @@
         <v>14503</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -3838,13 +3856,13 @@
         <v>42929</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3930,13 @@
         <v>150681</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -3927,13 +3945,13 @@
         <v>153681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>419</v>
@@ -3942,13 +3960,13 @@
         <v>304362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3981,13 @@
         <v>22667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H14" s="7">
         <v>29</v>
@@ -3978,13 +3996,13 @@
         <v>18262</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -3993,13 +4011,13 @@
         <v>40929</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4085,13 @@
         <v>636612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
         <v>918</v>
@@ -4082,13 +4100,13 @@
         <v>611937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>1829</v>
@@ -4097,13 +4115,13 @@
         <v>1248548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4136,13 @@
         <v>61540</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>67</v>
@@ -4133,13 +4151,13 @@
         <v>44439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>152</v>
@@ -4148,13 +4166,13 @@
         <v>105979</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,7 +4228,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4230,7 +4248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF610812-C6AA-42FD-918A-A308F4292481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DD1310-AA74-4D94-BBE6-C8390E431168}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4247,7 +4265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4354,13 +4372,13 @@
         <v>38584</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="H4" s="7">
         <v>74</v>
@@ -4369,13 +4387,13 @@
         <v>38392</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>147</v>
@@ -4384,13 +4402,13 @@
         <v>76976</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4423,13 @@
         <v>7047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
@@ -4420,13 +4438,13 @@
         <v>10274</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -4435,13 +4453,13 @@
         <v>17321</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4527,13 @@
         <v>153349</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>223</v>
@@ -4524,13 +4542,13 @@
         <v>138355</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>463</v>
@@ -4539,13 +4557,13 @@
         <v>291703</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4578,13 @@
         <v>20249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -4575,13 +4593,13 @@
         <v>20250</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -4590,13 +4608,13 @@
         <v>40500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4682,13 @@
         <v>173961</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>204</v>
@@ -4679,13 +4697,13 @@
         <v>154069</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>412</v>
@@ -4694,13 +4712,13 @@
         <v>328031</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4733,13 @@
         <v>28517</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -4730,13 +4748,13 @@
         <v>22044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>64</v>
@@ -4745,13 +4763,13 @@
         <v>50560</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4837,13 @@
         <v>260649</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>303</v>
@@ -4834,13 +4852,13 @@
         <v>231940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
         <v>611</v>
@@ -4849,13 +4867,13 @@
         <v>492589</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4888,13 @@
         <v>28775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -4885,13 +4903,13 @@
         <v>28693</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
@@ -4900,13 +4918,13 @@
         <v>57468</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4992,13 @@
         <v>626543</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H16" s="7">
         <v>804</v>
@@ -4989,13 +5007,13 @@
         <v>562756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>1633</v>
@@ -5004,13 +5022,13 @@
         <v>1189299</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5043,13 @@
         <v>84588</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
@@ -5040,13 +5058,13 @@
         <v>81261</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
@@ -5055,13 +5073,13 @@
         <v>165849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,7 +5135,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2005-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2005-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BFC90D-C7AA-406E-B502-50E3048E9EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA74CB3B-BD88-409A-BB59-B6FF8E9B65CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AC99976-A991-4EA7-9C70-2F622D2E0855}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{261BDE18-09A3-4FE3-AD36-6F7AE2FAEBE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="355">
   <si>
     <t>Menores según si sus dientes estan sanos en 2007 (Tasa respuesta: 93,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
   </si>
   <si>
     <t>8,22%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,217 +137,211 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
     <t>91,75%</t>
   </si>
   <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>92,1%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>8,25%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
     <t>84,63%</t>
   </si>
   <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
     <t>86,48%</t>
   </si>
   <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>13,52%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>87,36%</t>
+    <t>87,59%</t>
   </si>
   <si>
     <t>90,24%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>11,17%</t>
@@ -356,7 +350,7 @@
     <t>9,76%</t>
   </si>
   <si>
-    <t>12,64%</t>
+    <t>12,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -365,31 +359,40 @@
     <t>Menores según si sus dientes estan sanos en 2012 (Tasa respuesta: 92,95%)</t>
   </si>
   <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
     <t>98,67%</t>
   </si>
   <si>
-    <t>95,51%</t>
+    <t>95,87%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -398,724 +401,709 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>96,04%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>87,37%</t>
   </si>
   <si>
-    <t>90,56%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
   </si>
   <si>
     <t>12,63%</t>
   </si>
   <si>
-    <t>9,44%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>85,82%</t>
   </si>
   <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>Menores según si sus dientes estan sanos en 2016 (Tasa respuesta: 93,18%)</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
     <t>81,63%</t>
   </si>
   <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>Menores según si sus dientes estan sanos en 2016 (Tasa respuesta: 93,18%)</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>Menores según si sus dientes estan sanos en 2023 (Tasa respuesta: 97,24%)</t>
   </si>
   <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
     <t>84,56%</t>
   </si>
   <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554306BC-F757-4BCA-AB6B-2D8E3145C72C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CB6A04-C621-4070-8B89-922FBE1B3AAC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1645,10 +1633,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D4" s="7">
-        <v>77584</v>
+        <v>61874</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1660,10 +1648,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="I4" s="7">
-        <v>61874</v>
+        <v>77584</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1696,10 +1684,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>6172</v>
+        <v>6313</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1711,10 +1699,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>6313</v>
+        <v>6172</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1747,25 +1735,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>104</v>
+      </c>
+      <c r="D6" s="7">
+        <v>68187</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>126</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>83756</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>104</v>
-      </c>
-      <c r="I6" s="7">
-        <v>68187</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1800,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D7" s="7">
-        <v>231424</v>
+        <v>232185</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1815,10 +1803,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I7" s="7">
-        <v>232185</v>
+        <v>231424</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1851,10 +1839,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>20798</v>
+        <v>18943</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1866,10 +1854,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>18943</v>
+        <v>20798</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1902,25 +1890,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>376</v>
+      </c>
+      <c r="D9" s="7">
+        <v>251128</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>252222</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>376</v>
-      </c>
-      <c r="I9" s="7">
-        <v>251128</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1955,10 +1943,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D10" s="7">
-        <v>117478</v>
+        <v>105311</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1970,10 +1958,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="I10" s="7">
-        <v>105311</v>
+        <v>117478</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2009,7 +1997,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>21338</v>
+        <v>20911</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2024,7 +2012,7 @@
         <v>32</v>
       </c>
       <c r="I11" s="7">
-        <v>20911</v>
+        <v>21338</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2057,25 +2045,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>189</v>
+      </c>
+      <c r="D12" s="7">
+        <v>126222</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>208</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>138816</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>189</v>
-      </c>
-      <c r="I12" s="7">
-        <v>126222</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2110,10 +2098,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D13" s="7">
-        <v>175960</v>
+        <v>165673</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2125,10 +2113,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="I13" s="7">
-        <v>165673</v>
+        <v>175960</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2161,10 +2149,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
-        <v>27512</v>
+        <v>24828</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2176,10 +2164,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I14" s="7">
-        <v>24828</v>
+        <v>27512</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2212,25 +2200,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>281</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190501</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>306</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>203472</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>281</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190501</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2265,10 +2253,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>907</v>
+        <v>842</v>
       </c>
       <c r="D16" s="7">
-        <v>602445</v>
+        <v>565042</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2280,19 +2268,19 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>842</v>
+        <v>907</v>
       </c>
       <c r="I16" s="7">
-        <v>565042</v>
+        <v>602445</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1749</v>
@@ -2301,13 +2289,13 @@
         <v>1167487</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,34 +2304,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>108</v>
+      </c>
+      <c r="D17" s="7">
+        <v>70996</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="7">
         <v>113</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>75820</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>108</v>
-      </c>
-      <c r="I17" s="7">
-        <v>70996</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>221</v>
@@ -2352,13 +2340,13 @@
         <v>146816</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,25 +2355,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>950</v>
+      </c>
+      <c r="D18" s="7">
+        <v>636038</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1020</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>678265</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>950</v>
-      </c>
-      <c r="I18" s="7">
-        <v>636038</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2414,7 +2402,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D2030-92F0-43CB-AF21-99058127CF28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD15D0B-645A-4E71-9A41-BC6F0EF61225}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2451,7 +2439,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2552,34 +2540,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>145</v>
+      </c>
+      <c r="D4" s="7">
+        <v>96119</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="7">
         <v>135</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>94648</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="7">
-        <v>145</v>
-      </c>
-      <c r="I4" s="7">
-        <v>96119</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>280</v>
@@ -2588,13 +2576,13 @@
         <v>190767</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,34 +2591,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2751</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>1275</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2751</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2639,13 +2627,13 @@
         <v>4026</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,25 +2642,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>149</v>
+      </c>
+      <c r="D6" s="7">
+        <v>98870</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>137</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>95923</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>149</v>
-      </c>
-      <c r="I6" s="7">
-        <v>98870</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2707,34 +2695,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>315</v>
+      </c>
+      <c r="D7" s="7">
+        <v>217267</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="7">
         <v>352</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>252192</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="H7" s="7">
-        <v>315</v>
-      </c>
-      <c r="I7" s="7">
-        <v>217267</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>667</v>
@@ -2743,13 +2731,13 @@
         <v>469459</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,34 +2746,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7">
+        <v>18983</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="7">
         <v>22</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>16799</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H8" s="7">
-        <v>25</v>
-      </c>
-      <c r="I8" s="7">
-        <v>18983</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>47</v>
@@ -2794,13 +2782,13 @@
         <v>35782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,25 +2797,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>340</v>
+      </c>
+      <c r="D9" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>374</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268991</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>340</v>
-      </c>
-      <c r="I9" s="7">
-        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2862,34 +2850,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>193</v>
+      </c>
+      <c r="D10" s="7">
+        <v>136172</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="7">
         <v>199</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>137002</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="7">
-        <v>193</v>
-      </c>
-      <c r="I10" s="7">
-        <v>136172</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
         <v>392</v>
@@ -2898,13 +2886,13 @@
         <v>273174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,31 +2904,31 @@
         <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>20413</v>
+        <v>19062</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>19062</v>
+        <v>20413</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -2949,13 +2937,13 @@
         <v>39475</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,25 +2952,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>221</v>
+      </c>
+      <c r="D12" s="7">
+        <v>155234</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>227</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>157415</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>221</v>
-      </c>
-      <c r="I12" s="7">
-        <v>155234</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3017,34 +3005,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>208</v>
+      </c>
+      <c r="D13" s="7">
+        <v>146930</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="7">
         <v>224</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>152132</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H13" s="7">
-        <v>208</v>
-      </c>
-      <c r="I13" s="7">
-        <v>146930</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>432</v>
@@ -3053,13 +3041,13 @@
         <v>299063</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,34 +3056,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>23030</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="7">
         <v>38</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>25132</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H14" s="7">
-        <v>33</v>
-      </c>
-      <c r="I14" s="7">
-        <v>23030</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M14" s="7">
         <v>71</v>
@@ -3104,13 +3092,13 @@
         <v>48161</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,25 +3107,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7">
+        <v>169960</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>177264</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>241</v>
-      </c>
-      <c r="I15" s="7">
-        <v>169960</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3172,34 +3160,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>861</v>
+      </c>
+      <c r="D16" s="7">
+        <v>596489</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7">
         <v>910</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>635974</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H16" s="7">
-        <v>861</v>
-      </c>
-      <c r="I16" s="7">
-        <v>596489</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M16" s="7">
         <v>1771</v>
@@ -3208,13 +3196,13 @@
         <v>1232463</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>184</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,31 +3214,31 @@
         <v>90</v>
       </c>
       <c r="D17" s="7">
-        <v>63619</v>
+        <v>63825</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>63825</v>
+        <v>63619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
         <v>180</v>
@@ -3259,13 +3247,13 @@
         <v>127444</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,25 +3262,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>951</v>
+      </c>
+      <c r="D18" s="7">
+        <v>660314</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1000</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>699593</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>951</v>
-      </c>
-      <c r="I18" s="7">
-        <v>660314</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3321,7 +3309,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD00AD55-2434-4D27-A018-18BE78D03283}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494FFE2C-C653-4983-A542-6F8D04E2DD1B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3358,7 +3346,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3459,34 +3447,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>140</v>
+      </c>
+      <c r="D4" s="7">
+        <v>87288</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="7">
         <v>122</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>80214</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="7">
-        <v>140</v>
-      </c>
-      <c r="I4" s="7">
-        <v>87288</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="M4" s="7">
         <v>262</v>
@@ -3495,13 +3483,13 @@
         <v>167503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,34 +3498,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>571</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>571</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3546,13 +3534,13 @@
         <v>571</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,25 +3549,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>141</v>
+      </c>
+      <c r="D6" s="7">
+        <v>87859</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>122</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>80214</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>141</v>
-      </c>
-      <c r="I6" s="7">
-        <v>87859</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3614,34 +3602,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>315</v>
+      </c>
+      <c r="D7" s="7">
+        <v>198720</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="7">
         <v>364</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>246914</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="H7" s="7">
-        <v>315</v>
-      </c>
-      <c r="I7" s="7">
-        <v>198720</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>679</v>
@@ -3650,13 +3638,13 @@
         <v>445634</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,34 +3653,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11103</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="7">
         <v>15</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>10447</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="7">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7">
-        <v>11103</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M8" s="7">
         <v>31</v>
@@ -3701,13 +3689,13 @@
         <v>21550</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,25 +3704,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>331</v>
+      </c>
+      <c r="D9" s="7">
+        <v>209823</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>379</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>257361</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>331</v>
-      </c>
-      <c r="I9" s="7">
-        <v>209823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3769,34 +3757,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>248</v>
+      </c>
+      <c r="D10" s="7">
+        <v>172247</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="7">
+      <c r="G10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="7">
+        <v>221</v>
+      </c>
+      <c r="I10" s="7">
         <v>158802</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="H10" s="7">
-        <v>248</v>
-      </c>
-      <c r="I10" s="7">
-        <v>172247</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>469</v>
@@ -3805,13 +3793,13 @@
         <v>331049</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,34 +3808,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7">
+        <v>14503</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="7">
         <v>40</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>28426</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H11" s="7">
-        <v>21</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14503</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M11" s="7">
         <v>61</v>
@@ -3856,13 +3844,13 @@
         <v>42929</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,25 +3859,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>269</v>
+      </c>
+      <c r="D12" s="7">
+        <v>186750</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>261</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>187228</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>269</v>
-      </c>
-      <c r="I12" s="7">
-        <v>186750</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3924,34 +3912,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>215</v>
+      </c>
+      <c r="D13" s="7">
+        <v>153681</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H13" s="7">
         <v>204</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>150681</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="H13" s="7">
-        <v>215</v>
-      </c>
-      <c r="I13" s="7">
-        <v>153681</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M13" s="7">
         <v>419</v>
@@ -3960,13 +3948,13 @@
         <v>304362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,34 +3963,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="7">
+        <v>18262</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H14" s="7">
+        <v>30</v>
+      </c>
+      <c r="I14" s="7">
         <v>22667</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H14" s="7">
-        <v>29</v>
-      </c>
-      <c r="I14" s="7">
-        <v>18262</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>59</v>
@@ -4011,13 +3999,13 @@
         <v>40929</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,25 +4014,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>244</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171943</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>234</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>173348</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>244</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171943</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4079,34 +4067,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>918</v>
+      </c>
+      <c r="D16" s="7">
+        <v>611937</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H16" s="7">
         <v>911</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>636612</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H16" s="7">
-        <v>918</v>
-      </c>
-      <c r="I16" s="7">
-        <v>611937</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>1829</v>
@@ -4115,13 +4103,13 @@
         <v>1248548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,34 +4118,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>67</v>
+      </c>
+      <c r="D17" s="7">
+        <v>44439</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H17" s="7">
         <v>85</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>61540</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="H17" s="7">
-        <v>67</v>
-      </c>
-      <c r="I17" s="7">
-        <v>44439</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M17" s="7">
         <v>152</v>
@@ -4166,13 +4154,13 @@
         <v>105979</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,25 +4169,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>985</v>
+      </c>
+      <c r="D18" s="7">
+        <v>656376</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>996</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>698152</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>985</v>
-      </c>
-      <c r="I18" s="7">
-        <v>656376</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4228,7 +4216,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4248,7 +4236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DD1310-AA74-4D94-BBE6-C8390E431168}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C952160-4C91-43FB-A85D-042BFBE439A5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4265,7 +4253,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4366,49 +4354,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>74</v>
+      </c>
+      <c r="D4" s="7">
+        <v>38701</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="7">
         <v>73</v>
       </c>
-      <c r="D4" s="7">
-        <v>38584</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>40528</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="H4" s="7">
-        <v>74</v>
-      </c>
-      <c r="I4" s="7">
-        <v>38392</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M4" s="7">
         <v>147</v>
       </c>
       <c r="N4" s="7">
-        <v>76976</v>
+        <v>79229</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,49 +4405,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10149</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="7">
         <v>14</v>
       </c>
-      <c r="D5" s="7">
-        <v>7047</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>7401</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="7">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10274</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>30</v>
+      </c>
+      <c r="N5" s="7">
+        <v>17550</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="M5" s="7">
-        <v>30</v>
-      </c>
-      <c r="N5" s="7">
-        <v>17321</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,25 +4456,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>90</v>
+      </c>
+      <c r="D6" s="7">
+        <v>48850</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>87</v>
       </c>
-      <c r="D6" s="7">
-        <v>45631</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>90</v>
-      </c>
       <c r="I6" s="7">
-        <v>48666</v>
+        <v>47929</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4501,7 +4489,7 @@
         <v>177</v>
       </c>
       <c r="N6" s="7">
-        <v>94297</v>
+        <v>96779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4521,49 +4509,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>223</v>
+      </c>
+      <c r="D7" s="7">
+        <v>139273</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="7">
         <v>240</v>
       </c>
-      <c r="D7" s="7">
-        <v>153349</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>159411</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" s="7">
-        <v>223</v>
-      </c>
-      <c r="I7" s="7">
-        <v>138355</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>463</v>
       </c>
       <c r="N7" s="7">
-        <v>291703</v>
+        <v>298683</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,49 +4560,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7">
+        <v>19863</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="7">
         <v>33</v>
       </c>
-      <c r="D8" s="7">
-        <v>20249</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>21446</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H8" s="7">
-        <v>34</v>
-      </c>
-      <c r="I8" s="7">
-        <v>20250</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
       </c>
       <c r="N8" s="7">
-        <v>40500</v>
+        <v>41309</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,25 +4611,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>257</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159136</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>273</v>
       </c>
-      <c r="D9" s="7">
-        <v>173598</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>257</v>
-      </c>
       <c r="I9" s="7">
-        <v>158605</v>
+        <v>180857</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4656,7 +4644,7 @@
         <v>530</v>
       </c>
       <c r="N9" s="7">
-        <v>332203</v>
+        <v>339992</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4676,49 +4664,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>204</v>
+      </c>
+      <c r="D10" s="7">
+        <v>151614</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" s="7">
         <v>208</v>
       </c>
-      <c r="D10" s="7">
-        <v>173961</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>182336</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H10" s="7">
-        <v>204</v>
-      </c>
-      <c r="I10" s="7">
-        <v>154069</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M10" s="7">
         <v>412</v>
       </c>
       <c r="N10" s="7">
-        <v>328031</v>
+        <v>333951</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,49 +4715,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7">
+        <v>21458</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="7">
         <v>35</v>
       </c>
-      <c r="D11" s="7">
-        <v>28517</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>30154</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H11" s="7">
-        <v>29</v>
-      </c>
-      <c r="I11" s="7">
-        <v>22044</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M11" s="7">
         <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>50560</v>
+        <v>51612</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,25 +4766,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4811,7 +4799,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4831,49 +4819,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>303</v>
+      </c>
+      <c r="D13" s="7">
+        <v>246964</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="7">
         <v>308</v>
       </c>
-      <c r="D13" s="7">
-        <v>260649</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>274816</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H13" s="7">
-        <v>303</v>
-      </c>
-      <c r="I13" s="7">
-        <v>231940</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M13" s="7">
         <v>611</v>
       </c>
       <c r="N13" s="7">
-        <v>492589</v>
+        <v>521779</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,49 +4870,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7">
+        <v>28494</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" s="7">
         <v>34</v>
       </c>
-      <c r="D14" s="7">
-        <v>28775</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>30667</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="H14" s="7">
-        <v>39</v>
-      </c>
-      <c r="I14" s="7">
-        <v>28693</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>73</v>
       </c>
       <c r="N14" s="7">
-        <v>57468</v>
+        <v>59161</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,7 +4924,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4951,7 +4939,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4966,7 +4954,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4986,49 +4974,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>804</v>
+      </c>
+      <c r="D16" s="7">
+        <v>576551</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H16" s="7">
         <v>829</v>
       </c>
-      <c r="D16" s="7">
-        <v>626543</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>657092</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="H16" s="7">
-        <v>804</v>
-      </c>
-      <c r="I16" s="7">
-        <v>562756</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>1633</v>
       </c>
       <c r="N16" s="7">
-        <v>1189299</v>
+        <v>1233643</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>349</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,49 +5025,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>118</v>
+      </c>
+      <c r="D17" s="7">
+        <v>79965</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H17" s="7">
         <v>116</v>
       </c>
-      <c r="D17" s="7">
-        <v>84588</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>89667</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="H17" s="7">
-        <v>118</v>
-      </c>
-      <c r="I17" s="7">
-        <v>81261</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M17" s="7">
         <v>234</v>
       </c>
       <c r="N17" s="7">
-        <v>165849</v>
+        <v>169632</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>357</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,25 +5076,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>922</v>
+      </c>
+      <c r="D18" s="7">
+        <v>656516</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>945</v>
       </c>
-      <c r="D18" s="7">
-        <v>711131</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>922</v>
-      </c>
       <c r="I18" s="7">
-        <v>644017</v>
+        <v>746759</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5121,7 +5109,7 @@
         <v>1867</v>
       </c>
       <c r="N18" s="7">
-        <v>1355148</v>
+        <v>1403275</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5135,7 +5123,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
